--- a/Database/Database_ver1.xlsx
+++ b/Database/Database_ver1.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngatdo/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE8C1495-D840-874E-9538-128BFC3B3EFB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E766A1-10C2-2E4A-B09A-CE485C966566}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{F082E328-88ED-1E44-819B-2F98DB18D793}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14300" xr2:uid="{F082E328-88ED-1E44-819B-2F98DB18D793}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SINHVIEN" sheetId="1" r:id="rId1"/>
+    <sheet name="MONHOC" sheetId="2" r:id="rId2"/>
+    <sheet name="SV_MH" sheetId="5" r:id="rId3"/>
+    <sheet name="CATHI" sheetId="4" r:id="rId4"/>
+    <sheet name="PHONGTHI" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,15 +28,711 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="213">
+  <si>
+    <t>MSSV</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Lớp khoá học</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>Ngành</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>25/12/1999</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>17/02/1999</t>
+  </si>
+  <si>
+    <t>15/02/1999</t>
+  </si>
+  <si>
+    <t>14/09/1999</t>
+  </si>
+  <si>
+    <t>13/08/1999</t>
+  </si>
+  <si>
+    <t>22/08/99</t>
+  </si>
+  <si>
+    <t>13/01/1999</t>
+  </si>
+  <si>
+    <t>30/6/1999</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>15/01/1999</t>
+  </si>
+  <si>
+    <t>14/03/1999</t>
+  </si>
+  <si>
+    <t>17/09/1999</t>
+  </si>
+  <si>
+    <t>26/01/1999</t>
+  </si>
+  <si>
+    <t>24/5/1999</t>
+  </si>
+  <si>
+    <t>13/2/1999</t>
+  </si>
+  <si>
+    <t>22/08/1999</t>
+  </si>
+  <si>
+    <t>23/12/1999</t>
+  </si>
+  <si>
+    <t>13/05/1999</t>
+  </si>
+  <si>
+    <t>18/08/1999</t>
+  </si>
+  <si>
+    <t>30/03/1999</t>
+  </si>
+  <si>
+    <t>15/06/1999</t>
+  </si>
+  <si>
+    <t>13/03/1999</t>
+  </si>
+  <si>
+    <t>25/03/1999</t>
+  </si>
+  <si>
+    <t>15/4/1999</t>
+  </si>
+  <si>
+    <t>22/07/1999</t>
+  </si>
+  <si>
+    <t>16/2/2018</t>
+  </si>
+  <si>
+    <t>22/12/1999</t>
+  </si>
+  <si>
+    <t>28/12/1999</t>
+  </si>
+  <si>
+    <t>21/09/1999</t>
+  </si>
+  <si>
+    <t>22/6/1999</t>
+  </si>
+  <si>
+    <t>31/08/1999</t>
+  </si>
+  <si>
+    <t>30/9/1999</t>
+  </si>
+  <si>
+    <t>18/10/1999</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Bằng</t>
+  </si>
+  <si>
+    <t>Dũng</t>
+  </si>
+  <si>
+    <t>Duy</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>Giang</t>
+  </si>
+  <si>
+    <t>Hải</t>
+  </si>
+  <si>
+    <t>Hằng</t>
+  </si>
+  <si>
+    <t>Hiếu</t>
+  </si>
+  <si>
+    <t>Hòa</t>
+  </si>
+  <si>
+    <t>Hoà</t>
+  </si>
+  <si>
+    <t>Hoàn</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>Hưng</t>
+  </si>
+  <si>
+    <t>Khánh</t>
+  </si>
+  <si>
+    <t>Khôi</t>
+  </si>
+  <si>
+    <t>Lâm</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Ly</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>Ngát</t>
+  </si>
+  <si>
+    <t>Phúc</t>
+  </si>
+  <si>
+    <t>Quang</t>
+  </si>
+  <si>
+    <t>Tâm</t>
+  </si>
+  <si>
+    <t>Thái</t>
+  </si>
+  <si>
+    <t>Thi</t>
+  </si>
+  <si>
+    <t>Thịnh</t>
+  </si>
+  <si>
+    <t>Tiến</t>
+  </si>
+  <si>
+    <t>Toàn</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Trung</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
+    <t>Vương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Quang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ Văn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đào Tiến </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Đức </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bùi Tiến </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ Thành </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Hữu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Minh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phan Thế </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hà Minh </t>
+  </si>
+  <si>
+    <t>Dương Thị Thúy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Trung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Đức </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Bá </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Hữu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngô Minh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Huy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Quang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thái </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Quang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Kiều </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phan Quang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Duy </t>
+  </si>
+  <si>
+    <t>Lê Cao Tùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Tuấn </t>
+  </si>
+  <si>
+    <t>Khổng Thị Mai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Khánh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dương Hải </t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phan Tất </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Hợp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Minh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lâm Hà </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Công </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Quý </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Việt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Khánh </t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ Quốc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Minh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Sơn </t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Thanh</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đinh Bảo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Họ </t>
+  </si>
+  <si>
+    <t>K62-CACLC1</t>
+  </si>
+  <si>
+    <t>CNTT</t>
+  </si>
+  <si>
+    <t>KHMT</t>
+  </si>
+  <si>
+    <t>Tên môn học</t>
+  </si>
+  <si>
+    <t>Số tín chỉ</t>
+  </si>
+  <si>
+    <t>INT2209</t>
+  </si>
+  <si>
+    <t>  Mạng máy tính</t>
+  </si>
+  <si>
+    <t>  3</t>
+  </si>
+  <si>
+    <t>INT2208</t>
+  </si>
+  <si>
+    <t>  Công nghệ phần mềm</t>
+  </si>
+  <si>
+    <t> INT2207</t>
+  </si>
+  <si>
+    <t>  Cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>INT1050</t>
+  </si>
+  <si>
+    <t>  Toán học rời rạc</t>
+  </si>
+  <si>
+    <t>  4</t>
+  </si>
+  <si>
+    <t> POL1001</t>
+  </si>
+  <si>
+    <t>  Tư tưởng Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>  2</t>
+  </si>
+  <si>
+    <t>PHI1005</t>
+  </si>
+  <si>
+    <t>  Những nguyên lý cơ bản của Chủ nghĩa Mác-Lênin 2</t>
+  </si>
+  <si>
+    <t> INT2205</t>
+  </si>
+  <si>
+    <t>  Kiến trúc máy tính</t>
+  </si>
+  <si>
+    <t>MAT1099</t>
+  </si>
+  <si>
+    <t>  Phương pháp tính</t>
+  </si>
+  <si>
+    <t> INT2203</t>
+  </si>
+  <si>
+    <t>  Cấu trúc dữ liệu và giải thuật</t>
+  </si>
+  <si>
+    <t> BSA2002</t>
+  </si>
+  <si>
+    <t>  Nguyên lý marketing</t>
+  </si>
+  <si>
+    <t> INT2204</t>
+  </si>
+  <si>
+    <t>  Lập trình hướng đối tượng</t>
+  </si>
+  <si>
+    <t>PHI1004</t>
+  </si>
+  <si>
+    <t>  Những nguyên lý cơ bản của Chủ nghĩa Mác-Lênin 1</t>
+  </si>
+  <si>
+    <t>MAT1093</t>
+  </si>
+  <si>
+    <t>  Đại số</t>
+  </si>
+  <si>
+    <t>PHY1100</t>
+  </si>
+  <si>
+    <t>  Cơ - Nhiệt</t>
+  </si>
+  <si>
+    <t>INT 2202</t>
+  </si>
+  <si>
+    <t>  Lập trình nâng cao</t>
+  </si>
+  <si>
+    <t>FLF2102</t>
+  </si>
+  <si>
+    <t>  Tiếng Anh cơ sở 2</t>
+  </si>
+  <si>
+    <t>  5</t>
+  </si>
+  <si>
+    <t>INT1003</t>
+  </si>
+  <si>
+    <t>  Tin học cơ sở 1</t>
+  </si>
+  <si>
+    <t>FLF2103</t>
+  </si>
+  <si>
+    <t>  Tiếng Anh cơ sở 3</t>
+  </si>
+  <si>
+    <t>FLF2104</t>
+  </si>
+  <si>
+    <t>  Tiếng Anh cơ sở 4</t>
+  </si>
+  <si>
+    <t>MAT1042</t>
+  </si>
+  <si>
+    <t>  Giải tích 2</t>
+  </si>
+  <si>
+    <t>INT1006</t>
+  </si>
+  <si>
+    <t>  Tin học cơ sở 4</t>
+  </si>
+  <si>
+    <t>MAT1041</t>
+  </si>
+  <si>
+    <t>  Giải tích 1</t>
+  </si>
+  <si>
+    <t>FLF2101</t>
+  </si>
+  <si>
+    <t>  Tiếng Anh cơ sở 1</t>
+  </si>
+  <si>
+    <t>Mã MH</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Mã phòng thi</t>
+  </si>
+  <si>
+    <t>Tên phòng thi</t>
+  </si>
+  <si>
+    <t>204-G2</t>
+  </si>
+  <si>
+    <t>207-G2</t>
+  </si>
+  <si>
+    <t>212-G2</t>
+  </si>
+  <si>
+    <t>305-G2</t>
+  </si>
+  <si>
+    <t>307-G2</t>
+  </si>
+  <si>
+    <t>404-E3</t>
+  </si>
+  <si>
+    <t>405-E3</t>
+  </si>
+  <si>
+    <t>306-E3</t>
+  </si>
+  <si>
+    <t>407-E3</t>
+  </si>
+  <si>
+    <t>410-E3</t>
+  </si>
+  <si>
+    <t>Giờ thi</t>
+  </si>
+  <si>
+    <t>Ngày thi</t>
+  </si>
+  <si>
+    <t>Status = 1 thì sinh viên được phép thi, đuọc đăng kí ca thi</t>
+  </si>
+  <si>
+    <t>Status = 0 thì sinh viên bị cấm thi, không được đăng kí ca thi</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>Số chỗ</t>
+  </si>
+  <si>
+    <t>23/10/2019</t>
+  </si>
+  <si>
+    <t>24/10/2019</t>
+  </si>
+  <si>
+    <t>25/10/2019</t>
+  </si>
+  <si>
+    <t>26/10/2019</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0A0101"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,8 +755,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +1104,4446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0A83E7-7227-584E-B1D4-139F47C64BF5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="20.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>17020045</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>17021211</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f>$F$2</f>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>17021216</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" ref="F4:F49" si="0">$F$2</f>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>17021224</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>17021230</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>17021231</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="11">
+        <v>36231</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>17021232</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>17021234</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="11">
+        <v>36406</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>17021236</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>17021238</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>17020173</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="11">
+        <v>35797</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>17021247</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="11">
+        <v>36283</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>17021248</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>17021252</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>17021251</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>17021253</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="11">
+        <v>36412</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>17020053</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="11">
+        <v>36285</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>17020052</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="11">
+        <v>36259</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>17021258</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>17021263</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>17021264</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>17021268</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>17021269</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="11">
+        <v>36373</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>17021270</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="11">
+        <v>36475</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>17021274</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="11">
+        <v>36411</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>17021276</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="11">
+        <v>36435</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>17021279</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>17021285</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>17021288</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="11">
+        <v>36227</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>17021291</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>17021295</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="11">
+        <v>36221</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>17020061</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>17021318</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>17021323</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>17021332</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>17021333</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>17021336</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>17021339</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>17021344</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>17021345</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>17021346</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>17021347</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="11">
+        <v>36195</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>17021348</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>17021350</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>17021351</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="11">
+        <v>36380</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>17021353</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>17021359</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="11">
+        <v>36440</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>17021360</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06252A2D-7421-E941-A8AE-344B14C06893}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="62.1640625" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA7B8F5-768E-EA49-A4A9-1AB1837A4C8A}">
+  <dimension ref="A1:G97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>17020045</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>17021211</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>17021216</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>17021224</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>17021230</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>17021231</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>17021232</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>17021234</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>17021236</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>17021238</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>17020173</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>17021247</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>17021248</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>17021252</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>17021251</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>17021253</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>17020053</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>17020052</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>17021258</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>17021263</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>17021264</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>17021268</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>17021269</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>17021270</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>17021274</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>17021276</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>17021279</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>17021285</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>17021288</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>17021291</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>17021295</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>17020061</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>17021318</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>17021323</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>17021332</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>17021333</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>17021336</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>17021339</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>17021344</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>17021345</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>17021346</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>17021347</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>17021348</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>17021350</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>17021351</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>17021353</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>17021359</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>17021360</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>17020045</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>17021211</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>17021216</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>17021224</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>17021230</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>17021231</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>17021232</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>17021234</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>17021236</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>17021238</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>17020173</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>17021247</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>17021248</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>17021252</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>17021251</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>17021253</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>17020053</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>17020052</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>17021258</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>17021263</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>17021264</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>17021268</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>17021269</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>17021270</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>17021274</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>17021276</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>17021279</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>17021285</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>17021288</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>17021291</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>17021295</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>17020061</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>17021318</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>17021323</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>17021332</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>17021333</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>17021336</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>17021339</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>17021344</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>17021345</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>17021346</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>17021347</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>17021348</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>17021350</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>17021351</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>17021353</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>17021359</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>17021360</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256AE806-B4FE-3948-A8F1-EB24724DDF11}">
+  <dimension ref="A1:D121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B93" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="15"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="15"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="15"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="15"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="15"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="15"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" s="15"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="15"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="15"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117" s="15"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="15"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119" s="15"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" s="15"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" s="15"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BFF740-4A39-9843-AFBC-0B5D4AEA4AE0}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.83203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>